--- a/rhla_analysis/rhla1_3_uniform_result/k0.xlsx
+++ b/rhla_analysis/rhla1_3_uniform_result/k0.xlsx
@@ -457,35 +457,35 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.005228318272477452</v>
+        <v>0.005228318272477449</v>
       </c>
       <c r="B2" t="n">
-        <v>0.04322050893088908</v>
+        <v>0.04322050893088907</v>
       </c>
       <c r="C2" t="n">
         <v>0.04859335038363171</v>
       </c>
       <c r="D2" t="n">
-        <v>8.266617806801753</v>
+        <v>8.266617806801754</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.008203828551336672</v>
+        <v>0.0082038285513367</v>
       </c>
       <c r="B3" t="n">
-        <v>0.04326650723561509</v>
+        <v>0.04326650723561511</v>
       </c>
       <c r="C3" t="n">
         <v>0.04177323103154305</v>
       </c>
       <c r="D3" t="n">
-        <v>5.273940936828276</v>
+        <v>5.273940936828261</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.00595439300237875</v>
+        <v>0.005954393002378755</v>
       </c>
       <c r="B4" t="n">
         <v>0.03829471282429028</v>
@@ -494,82 +494,82 @@
         <v>0.0370843989769821</v>
       </c>
       <c r="D4" t="n">
-        <v>6.431337805380287</v>
+        <v>6.43133780538028</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.01065476154754566</v>
+        <v>0.01065476154754562</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0443450813042026</v>
+        <v>0.04434508130420264</v>
       </c>
       <c r="C5" t="n">
         <v>0.04134697357203751</v>
       </c>
       <c r="D5" t="n">
-        <v>4.161996597138071</v>
+        <v>4.161996597138089</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.00807666304028702</v>
+        <v>0.008076663040286933</v>
       </c>
       <c r="B6" t="n">
-        <v>0.04335847265203861</v>
+        <v>0.0433584726520386</v>
       </c>
       <c r="C6" t="n">
         <v>0.0392156862745098</v>
       </c>
       <c r="D6" t="n">
-        <v>5.368364686723117</v>
+        <v>5.368364686723174</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.006449115809322907</v>
+        <v>0.006449115809322891</v>
       </c>
       <c r="B7" t="n">
-        <v>0.03457377062343362</v>
+        <v>0.03457377062343364</v>
       </c>
       <c r="C7" t="n">
         <v>0.04688832054560955</v>
       </c>
       <c r="D7" t="n">
-        <v>5.36100942294344</v>
+        <v>5.361009422943458</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.009334813905780512</v>
+        <v>0.009334813905780549</v>
       </c>
       <c r="B8" t="n">
-        <v>0.03922665799289865</v>
+        <v>0.03922665799289864</v>
       </c>
       <c r="C8" t="n">
         <v>0.04731457800511509</v>
       </c>
       <c r="D8" t="n">
-        <v>4.202189608579967</v>
+        <v>4.20218960857995</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.005038220822636204</v>
+        <v>0.005038220822636208</v>
       </c>
       <c r="B9" t="n">
-        <v>0.03611880066115804</v>
+        <v>0.03611880066115803</v>
       </c>
       <c r="C9" t="n">
         <v>0.05839727195225917</v>
       </c>
       <c r="D9" t="n">
-        <v>7.168959426883398</v>
+        <v>7.16895942688339</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.007839260313832041</v>
+        <v>0.007839260313832008</v>
       </c>
       <c r="B10" t="n">
         <v>0.04169152687628366</v>
@@ -578,12 +578,12 @@
         <v>0.046462063086104</v>
       </c>
       <c r="D10" t="n">
-        <v>5.318298564817491</v>
+        <v>5.318298564817513</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.01070862177857837</v>
+        <v>0.01070862177857839</v>
       </c>
       <c r="B11" t="n">
         <v>0.04035998533864592</v>
@@ -592,7 +592,7 @@
         <v>0.06052855924978687</v>
       </c>
       <c r="D11" t="n">
-        <v>3.768924346490827</v>
+        <v>3.768924346490819</v>
       </c>
     </row>
   </sheetData>
